--- a/biology/Botanique/Hypocotyle/Hypocotyle.xlsx
+++ b/biology/Botanique/Hypocotyle/Hypocotyle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’hypocotyle ou axe hypocotylé est la partie de la tigelle située entre sa base (le collet) et les premiers cotylédons de la plante. La tige est verticale. Lors de la germination, la croissance de la tigelle est parfois si rapide au début qu'elle entraîne et soulève les cotylédons.  
 </t>
